--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2255.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2255.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.187085881067723</v>
+        <v>0.9656778573989868</v>
       </c>
       <c r="B1">
-        <v>2.307325717451562</v>
+        <v>2.758779525756836</v>
       </c>
       <c r="C1">
-        <v>6.933533923599457</v>
+        <v>5.52840518951416</v>
       </c>
       <c r="D1">
-        <v>2.433701670474093</v>
+        <v>2.107406616210938</v>
       </c>
       <c r="E1">
-        <v>1.192211894307796</v>
+        <v>1.19182562828064</v>
       </c>
     </row>
   </sheetData>
